--- a/data-raw/dataxl/D2025_11_30_1600.xlsx
+++ b/data-raw/dataxl/D2025_11_30_1600.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Landslide data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5052e625e7f51e50/Desktop/landslide_Ti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF1A62E-41CF-467B-9CF7-76543F4358C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BDF1A62E-41CF-467B-9CF7-76543F4358C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF951A9A-5169-4704-BC92-C851D3F2EF03}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F240B6C9-A665-4B37-8472-D68A7AFFA1FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="144">
   <si>
     <t>Report_Date</t>
   </si>
@@ -467,291 +467,6 @@
   </si>
   <si>
     <t>Eheliyagoda</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-21</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-22</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-24</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-25</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-26</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-27</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-28</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-29</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-30</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-32</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-33</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-34</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-35</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-36</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-37</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-38</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-40</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-41</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-42</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-43</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-44</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-45</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-46</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-47</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-48</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-49</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-50</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-51</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-52</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-53</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-54</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-55</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-56</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-57</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-58</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-59</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-61</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-62</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-63</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-64</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-65</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-66</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-67</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-68</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-69</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-70</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-71</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-73</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-74</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-75</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-76</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-77</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-79</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-80</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-81</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-82</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-83</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-84</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-85</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-86</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-87</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-88</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-89</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-91</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-92</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-93</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-94</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-96</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-97</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-98</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-99</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-100</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-101</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-102</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-103</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-104</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-105</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-107</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-108</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-109</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-110</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-111</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-112</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-113</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-114</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-115</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-116</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-117</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-118</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-119</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-120</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-121</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-122</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-123</t>
-  </si>
-  <si>
-    <t>LEWM-30-11-2025-1600-124</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D545D447-65DB-4B9E-B1D6-AD85DDBB554F}">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="H113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,7 +1489,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6">
         <v>45991</v>
@@ -1809,7 +1524,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6">
         <v>45991</v>
@@ -1844,7 +1559,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6">
         <v>45991</v>
@@ -1879,7 +1594,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="E21" s="6">
         <v>45991</v>
@@ -1914,7 +1629,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6">
         <v>45991</v>
@@ -1949,7 +1664,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="E23" s="6">
         <v>45991</v>
@@ -1984,7 +1699,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="E24" s="6">
         <v>45991</v>
@@ -2019,7 +1734,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="E25" s="6">
         <v>45991</v>
@@ -2054,7 +1769,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <v>45991</v>
@@ -2092,7 +1807,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="E27" s="6">
         <v>45991</v>
@@ -2130,7 +1845,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E28" s="6">
         <v>45991</v>
@@ -2168,7 +1883,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="E29" s="6">
         <v>45991</v>
@@ -2206,7 +1921,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="E30" s="6">
         <v>45991</v>
@@ -2244,7 +1959,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6">
         <v>45991</v>
@@ -2282,7 +1997,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="E32" s="6">
         <v>45991</v>
@@ -2320,7 +2035,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="E33" s="6">
         <v>45991</v>
@@ -2358,7 +2073,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="E34" s="6">
         <v>45991</v>
@@ -2393,7 +2108,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="E35" s="6">
         <v>45991</v>
@@ -2428,7 +2143,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="E36" s="6">
         <v>45991</v>
@@ -2463,7 +2178,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="E37" s="6">
         <v>45991</v>
@@ -2498,7 +2213,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="E38" s="6">
         <v>45991</v>
@@ -2533,7 +2248,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="E39" s="6">
         <v>45991</v>
@@ -2568,7 +2283,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="E40" s="6">
         <v>45991</v>
@@ -2603,7 +2318,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="E41" s="6">
         <v>45991</v>
@@ -2638,7 +2353,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6">
         <v>45991</v>
@@ -2673,7 +2388,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D43" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E43" s="6">
         <v>45991</v>
@@ -2708,7 +2423,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="E44" s="6">
         <v>45991</v>
@@ -2743,7 +2458,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="E45" s="6">
         <v>45991</v>
@@ -2778,7 +2493,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="E46" s="6">
         <v>45991</v>
@@ -2813,7 +2528,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E47" s="6">
         <v>45991</v>
@@ -2848,7 +2563,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="E48" s="6">
         <v>45991</v>
@@ -2883,7 +2598,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="E49" s="6">
         <v>45991</v>
@@ -2918,7 +2633,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="E50" s="6">
         <v>45991</v>
@@ -2953,7 +2668,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="E51" s="6">
         <v>45991</v>
@@ -2988,7 +2703,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="E52" s="6">
         <v>45991</v>
@@ -3023,7 +2738,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="E53" s="6">
         <v>45991</v>
@@ -3058,7 +2773,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="E54" s="6">
         <v>45991</v>
@@ -3093,7 +2808,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="E55" s="6">
         <v>45991</v>
@@ -3128,7 +2843,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="E56" s="6">
         <v>45991</v>
@@ -3163,7 +2878,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="E57" s="6">
         <v>45991</v>
@@ -3198,7 +2913,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="E58" s="6">
         <v>45991</v>
@@ -3233,7 +2948,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="E59" s="6">
         <v>45991</v>
@@ -3268,7 +2983,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="E60" s="6">
         <v>45991</v>
@@ -3303,7 +3018,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="E61" s="6">
         <v>45991</v>
@@ -3338,7 +3053,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="E62" s="6">
         <v>45991</v>
@@ -3373,7 +3088,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="E63" s="6">
         <v>45991</v>
@@ -3408,7 +3123,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="E64" s="6">
         <v>45991</v>
@@ -3443,7 +3158,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="E65" s="6">
         <v>45991</v>
@@ -3478,7 +3193,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="E66" s="6">
         <v>45991</v>
@@ -3513,7 +3228,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="E67" s="6">
         <v>45991</v>
@@ -3548,7 +3263,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="E68" s="6">
         <v>45991</v>
@@ -3583,7 +3298,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="E69" s="6">
         <v>45991</v>
@@ -3618,7 +3333,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="E70" s="6">
         <v>45991</v>
@@ -3653,7 +3368,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E71" s="6">
         <v>45991</v>
@@ -3688,7 +3403,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="E72" s="6">
         <v>45991</v>
@@ -3723,7 +3438,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="E73" s="6">
         <v>45991</v>
@@ -3758,7 +3473,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="E74" s="6">
         <v>45991</v>
@@ -3793,7 +3508,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="E75" s="6">
         <v>45991</v>
@@ -3828,7 +3543,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="E76" s="6">
         <v>45991</v>
@@ -3863,7 +3578,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="E77" s="6">
         <v>45991</v>
@@ -3898,7 +3613,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D78" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="E78" s="6">
         <v>45991</v>
@@ -3933,7 +3648,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="E79" s="6">
         <v>45991</v>
@@ -3968,7 +3683,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="E80" s="6">
         <v>45991</v>
@@ -4003,7 +3718,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="E81" s="6">
         <v>45991</v>
@@ -4041,7 +3756,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="E82" s="6">
         <v>45991</v>
@@ -4079,7 +3794,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="E83" s="6">
         <v>45991</v>
@@ -4117,7 +3832,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="E84" s="6">
         <v>45991</v>
@@ -4155,7 +3870,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="E85" s="6">
         <v>45991</v>
@@ -4190,7 +3905,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="E86" s="6">
         <v>45991</v>
@@ -4225,7 +3940,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E87" s="6">
         <v>45991</v>
@@ -4260,7 +3975,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D88" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="E88" s="6">
         <v>45991</v>
@@ -4295,7 +4010,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="E89" s="6">
         <v>45991</v>
@@ -4330,7 +4045,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="E90" s="6">
         <v>45991</v>
@@ -4365,7 +4080,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D91" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E91" s="6">
         <v>45991</v>
@@ -4400,7 +4115,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E92" s="6">
         <v>45991</v>
@@ -4435,7 +4150,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="E93" s="6">
         <v>45991</v>
@@ -4470,7 +4185,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="E94" s="6">
         <v>45991</v>
@@ -4505,7 +4220,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="E95" s="6">
         <v>45991</v>
@@ -4543,7 +4258,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="E96" s="6">
         <v>45991</v>
@@ -4581,7 +4296,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D97" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="E97" s="6">
         <v>45991</v>
@@ -4619,7 +4334,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D98" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="E98" s="6">
         <v>45991</v>
@@ -4657,7 +4372,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D99" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="E99" s="6">
         <v>45991</v>
@@ -4695,7 +4410,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="E100" s="6">
         <v>45991</v>
@@ -4733,7 +4448,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="E101" s="6">
         <v>45991</v>
@@ -4771,7 +4486,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E102" s="6">
         <v>45991</v>
@@ -4809,7 +4524,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="E103" s="6">
         <v>45991</v>
@@ -4847,7 +4562,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D104" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="E104" s="6">
         <v>45991</v>
@@ -4885,7 +4600,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="E105" s="6">
         <v>45991</v>
@@ -4923,7 +4638,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="E106" s="6">
         <v>45991</v>
@@ -4961,7 +4676,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="E107" s="6">
         <v>45991</v>
@@ -4999,7 +4714,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="E108" s="6">
         <v>45991</v>
@@ -5037,7 +4752,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="E109" s="6">
         <v>45991</v>
@@ -5075,7 +4790,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="E110" s="6">
         <v>45991</v>
@@ -5113,7 +4828,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="E111" s="6">
         <v>45991</v>
@@ -5151,7 +4866,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="E112" s="6">
         <v>45991</v>
